--- a/infect-server/src/main/resources/templates/检测信息导出表.xlsx
+++ b/infect-server/src/main/resources/templates/检测信息导出表.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>1、个人基本信息</t>
   </si>
@@ -57,6 +57,9 @@
     <t>联系电话</t>
   </si>
   <si>
+    <t>上传时间</t>
+  </si>
+  <si>
     <t>病毒抗原检测（是/否）</t>
   </si>
   <si>
@@ -70,9 +73,6 @@
   </si>
   <si>
     <t>检测报告压缩包文件名</t>
-  </si>
-  <si>
-    <t>上传时间</t>
   </si>
   <si>
     <t xml:space="preserve">Name </t>
@@ -124,14 +124,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,7 +292,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -374,12 +367,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -417,12 +404,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,94 +677,100 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -792,10 +779,10 @@
     <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -804,10 +791,10 @@
     <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -816,17 +803,11 @@
     <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -836,7 +817,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -845,58 +826,64 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1210,10 +1197,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1221,7 +1208,7 @@
     <col min="7" max="7" width="11.8166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1238,8 +1225,9 @@
       <c r="J1" s="20"/>
       <c r="K1" s="20"/>
       <c r="L1" s="20"/>
-    </row>
-    <row r="2" ht="36" spans="1:12">
+      <c r="M1" s="25"/>
+    </row>
+    <row r="2" ht="36" spans="1:13">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -1261,7 +1249,7 @@
       <c r="G2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="21" t="s">
         <v>9</v>
       </c>
       <c r="I2" s="15" t="s">
@@ -1276,235 +1264,254 @@
       <c r="L2" s="15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="23"/>
+      <c r="M2" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="24"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="23"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="24"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="24"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="23"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="24"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="23"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="24"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="23"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="24"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="23"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="24"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="23"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="24"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="23"/>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="23"/>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="24"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="23"/>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="24"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="23"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="24"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="23"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="24"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="23"/>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="24"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="23"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="24"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="H1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1565,22 +1572,22 @@
         <v>8</v>
       </c>
       <c r="H2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="15" t="s">
         <v>14</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="54" spans="2:13">
